--- a/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_yuki_1_1.xlsx
+++ b/story/Story Summarization 剧情简述/Main Story and Others 主线剧情等/Operator Record 干员密录/story_yuki_1_1.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Under Fumizuki's orders, personal bodyguard ShiraYuki joins Rhodes Island, and her first order of business upon is to investigate this company...
+    <t xml:space="preserve">Under Fumizuki's orders, personal bodyguard Shirayuki joins Rhodes Island, and her first order of business upon is to investigate this company...
 </t>
   </si>
   <si>
